--- a/要件定義書/C表作成メニューレイアウト.xlsx
+++ b/要件定義書/C表作成メニューレイアウト.xlsx
@@ -24,9 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -98,16 +102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>599440</xdr:colOff>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>666748</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -116,8 +120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="277495"/>
-          <a:ext cx="5400040" cy="1943100"/>
+          <a:off x="685799" y="3119120"/>
+          <a:ext cx="28098749" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="corner">
           <a:avLst>
@@ -229,7 +233,15 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>C Hyou</a:t>
+            <a:t>C </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Hyou</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
             <a:effectLst/>
@@ -243,16 +255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>262255</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>201931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>262255</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77471</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -261,7 +273,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2319655" y="678181"/>
+          <a:off x="2748280" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -293,15 +305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>340360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
+      <xdr:colOff>529378</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -310,8 +322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1026160" y="1906905"/>
-          <a:ext cx="1030605" cy="389890"/>
+          <a:off x="1215178" y="4748414"/>
+          <a:ext cx="1028488" cy="380365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,20 +360,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Load Drawing</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -374,13 +386,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>62230</xdr:colOff>
+      <xdr:colOff>390313</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
@@ -391,8 +403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="748030" y="821055"/>
-          <a:ext cx="1308735" cy="371475"/>
+          <a:off x="1076113" y="3678555"/>
+          <a:ext cx="1306618" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -429,14 +441,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Brand Drawing</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -449,13 +461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>62230</xdr:colOff>
+      <xdr:colOff>390313</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
@@ -466,8 +478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="748030" y="1287780"/>
-          <a:ext cx="1308735" cy="371475"/>
+          <a:off x="1076113" y="4145280"/>
+          <a:ext cx="1306618" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,14 +516,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>C Hyou Ref. No,</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -523,16 +535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>451485</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>645795</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>223721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:rowOff>128471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,8 +553,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2508885" y="1906905"/>
-          <a:ext cx="880110" cy="390525"/>
+          <a:off x="3307080" y="4748096"/>
+          <a:ext cx="948690" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,20 +591,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Pre Process</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -604,14 +616,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
@@ -622,7 +634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409825" y="821055"/>
+          <a:off x="3162300" y="3678555"/>
           <a:ext cx="1238250" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -660,14 +672,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Pre Process</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -680,76 +692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342265</xdr:colOff>
+      <xdr:colOff>563879</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5229225" y="678180"/>
-          <a:ext cx="5400040" cy="1542415"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>668655</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>183515</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -758,8 +709,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4097655" y="1906905"/>
-          <a:ext cx="886460" cy="389890"/>
+          <a:off x="5364479" y="4748414"/>
+          <a:ext cx="960121" cy="380365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,20 +747,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Frame Data</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -821,16 +772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>668655</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616584</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>151765</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99694</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -839,7 +790,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4097655" y="840105"/>
+          <a:off x="5417184" y="3678555"/>
           <a:ext cx="854710" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -877,14 +828,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Create</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -896,16 +847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486316</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>645795</xdr:colOff>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -914,8 +865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667625" y="1897380"/>
-          <a:ext cx="521970" cy="389890"/>
+          <a:off x="9401716" y="4748414"/>
+          <a:ext cx="656683" cy="380365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,20 +903,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Serial</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -977,16 +928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>490855</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167547</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>659765</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336457</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -995,7 +946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5291455" y="782955"/>
+          <a:off x="7025547" y="3678555"/>
           <a:ext cx="854710" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1038,7 +989,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1049,7 +1000,7 @@
             </a:rPr>
             <a:t>7 digit &gt;</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1065,16 +1016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>452755</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>202566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>452755</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>78106</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1083,7 +1034,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3881755" y="678816"/>
+          <a:off x="4805680" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1114,16 +1065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666115</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342807</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>681355</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358047</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1132,7 +1083,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6152515" y="782955"/>
+          <a:off x="7886607" y="3678555"/>
           <a:ext cx="1386840" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1175,7 +1126,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1186,7 +1137,7 @@
             </a:rPr>
             <a:t>Create</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1202,16 +1153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346617</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361857</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>144548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1220,7 +1171,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6156325" y="1154430"/>
+          <a:off x="7890417" y="4059323"/>
           <a:ext cx="1386840" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1263,7 +1214,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1274,7 +1225,7 @@
             </a:rPr>
             <a:t>Note/Year Sign</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1290,16 +1241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>346617</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685165</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
+      <xdr:rowOff>144548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361857</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1308,7 +1259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6156325" y="1525905"/>
+          <a:off x="7890417" y="4430798"/>
           <a:ext cx="1386840" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1351,7 +1302,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1362,7 +1313,7 @@
             </a:rPr>
             <a:t>Delete</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1378,16 +1329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361315</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>32973</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206917</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1396,8 +1347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905115" y="782955"/>
-          <a:ext cx="854710" cy="371475"/>
+          <a:off x="9634173" y="3678555"/>
+          <a:ext cx="859744" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,7 +1390,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1450,7 +1401,7 @@
             </a:rPr>
             <a:t>8 digit &gt;</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1466,16 +1417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>530860</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207552</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222792</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1484,7 +1435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8760460" y="782955"/>
+          <a:off x="10494552" y="3678555"/>
           <a:ext cx="1386840" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1527,7 +1478,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1538,7 +1489,7 @@
             </a:rPr>
             <a:t>Create</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1554,16 +1505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>530860</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207552</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222792</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>144548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1572,7 +1523,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8760460" y="1154430"/>
+          <a:off x="10494552" y="4059323"/>
           <a:ext cx="1386840" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1615,7 +1566,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1626,7 +1577,7 @@
             </a:rPr>
             <a:t>Note/Year Sign</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1642,16 +1593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>530860</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207552</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
+      <xdr:rowOff>144548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222792</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1660,7 +1611,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8760460" y="1525905"/>
+          <a:off x="10494552" y="4430798"/>
           <a:ext cx="1386840" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1703,7 +1654,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -1714,7 +1665,7 @@
             </a:rPr>
             <a:t>Delete</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -1730,77 +1681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>94615</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594677</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95567</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10467975" y="678180"/>
-          <a:ext cx="5400040" cy="1542415"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>356235</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>421640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1809,8 +1699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10643235" y="1906905"/>
-          <a:ext cx="751205" cy="389890"/>
+          <a:off x="12939077" y="4743651"/>
+          <a:ext cx="872490" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1847,20 +1737,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Mold No.</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1872,16 +1762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>299720</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603567</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86677</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1890,7 +1780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586720" y="878205"/>
+          <a:off x="12947967" y="3678555"/>
           <a:ext cx="854710" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1928,14 +1818,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Mold No.</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1947,16 +1837,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>201931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77471</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1965,7 +1855,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11609070" y="678181"/>
+          <a:off x="14403070" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1996,16 +1886,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>296545</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>78740</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>124142</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2014,8 +1904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11955145" y="1906905"/>
-          <a:ext cx="467995" cy="389890"/>
+          <a:off x="15211742" y="4748414"/>
+          <a:ext cx="471170" cy="380365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,20 +1942,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>TWI</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2077,16 +1967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>124460</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>293370</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2095,8 +1985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11783060" y="878205"/>
-          <a:ext cx="854710" cy="371475"/>
+          <a:off x="15021560" y="3678555"/>
+          <a:ext cx="851535" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,14 +2023,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>TWI</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2152,16 +2042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>677545</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>201931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>677545</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77471</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2170,7 +2060,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12847320" y="678181"/>
+          <a:off x="16450945" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2201,16 +2091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51753</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2219,8 +2109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13291185" y="1906905"/>
-          <a:ext cx="707390" cy="389890"/>
+          <a:off x="17083088" y="4743651"/>
+          <a:ext cx="799465" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2257,20 +2147,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Platform</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2282,16 +2172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>570865</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2300,7 +2190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13020675" y="878205"/>
+          <a:off x="16849725" y="3678555"/>
           <a:ext cx="1266190" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2338,14 +2228,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Create(DOM)</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2357,16 +2247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>570865</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2375,7 +2265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13020675" y="1344930"/>
+          <a:off x="16849725" y="4145280"/>
           <a:ext cx="1266190" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2413,14 +2303,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Create(IO)</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2432,16 +2322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>201931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77471</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2450,7 +2340,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14466570" y="678181"/>
+          <a:off x="18521045" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2481,16 +2371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>330835</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>591820</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>496887</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>162877</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2499,8 +2389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14732635" y="1906905"/>
-          <a:ext cx="946785" cy="389890"/>
+          <a:off x="19013487" y="4743651"/>
+          <a:ext cx="1037590" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2537,20 +2427,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Safety Detail</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2562,16 +2452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234315</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>589915</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2580,8 +2470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14636115" y="916305"/>
-          <a:ext cx="854710" cy="371475"/>
+          <a:off x="19106515" y="3678555"/>
+          <a:ext cx="851535" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,14 +2508,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Create</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2637,16 +2527,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234315</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>589915</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2655,8 +2545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14636115" y="1344930"/>
-          <a:ext cx="854710" cy="371475"/>
+          <a:off x="19106515" y="4145280"/>
+          <a:ext cx="851535" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2693,14 +2583,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Delete</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2712,77 +2602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>542290</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15716250" y="678180"/>
-          <a:ext cx="5400040" cy="1542415"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>201931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>77471</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2791,7 +2620,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17005300" y="678181"/>
+          <a:off x="22637750" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2822,16 +2651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>420370</xdr:colOff>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>182245</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2840,8 +2669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15782290" y="1897380"/>
-          <a:ext cx="1097280" cy="389890"/>
+          <a:off x="21033740" y="4743651"/>
+          <a:ext cx="1094105" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2878,20 +2707,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Labeling Detail</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2903,16 +2732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>579437</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>233680</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>62547</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2921,7 +2750,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15838170" y="916305"/>
+          <a:off x="21153437" y="3678555"/>
           <a:ext cx="854710" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2959,14 +2788,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Create</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2978,16 +2807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>579437</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>233680</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>62547</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2996,7 +2825,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15838170" y="1344930"/>
+          <a:off x="21153437" y="4145280"/>
           <a:ext cx="854710" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3034,14 +2863,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Delete</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3053,16 +2882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>77470</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>629920</xdr:colOff>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3071,7 +2900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17222470" y="1897380"/>
+          <a:off x="23357205" y="4743651"/>
           <a:ext cx="552450" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3109,20 +2938,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Detail</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3134,16 +2963,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>149860</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57785</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3152,7 +2981,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17125950" y="916305"/>
+          <a:off x="23206075" y="3678555"/>
           <a:ext cx="854710" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3190,14 +3019,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Create</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3209,91 +3038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>149860</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17125950" y="1344930"/>
-          <a:ext cx="854710" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
-              <a:effectLst/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Delete</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
-            <a:effectLst/>
-            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>201931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77471</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3302,7 +3056,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18114645" y="678181"/>
+          <a:off x="24667845" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3333,16 +3087,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>535623</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>106045</xdr:colOff>
+      <xdr:rowOff>218959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>150178</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>133234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3351,7 +3105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18322290" y="1897380"/>
+          <a:off x="25224423" y="4743334"/>
           <a:ext cx="986155" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3389,20 +3143,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Drawing Pos.</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3414,16 +3168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3432,7 +3186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18268950" y="916305"/>
+          <a:off x="25098375" y="3678555"/>
           <a:ext cx="1238250" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3470,14 +3224,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Drawing Pos.</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3489,16 +3243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>448310</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>182246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>448310</xdr:colOff>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>57786</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3507,7 +3261,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19650710" y="658496"/>
+          <a:off x="26765885" y="3515361"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3538,16 +3292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>681990</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>486093</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>230505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:rowOff>218959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>226378</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>133234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3556,8 +3310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19884390" y="1897380"/>
-          <a:ext cx="1003935" cy="390525"/>
+          <a:off x="27232293" y="4743334"/>
+          <a:ext cx="1111885" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3594,20 +3348,20 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just">
+          <a:pPr algn="ctr">
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Save Drawing</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3619,16 +3373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>597535</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>464185</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77470</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3637,7 +3391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19799935" y="896620"/>
+          <a:off x="27169110" y="3678555"/>
           <a:ext cx="1238250" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3675,18 +3429,2632 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" kern="100">
+            <a:rPr lang="en-US" sz="1200" kern="100">
               <a:effectLst/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Save Drawing</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6872605" y="3515361"/>
+          <a:ext cx="0" cy="1542415"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12349480" y="3515361"/>
+          <a:ext cx="0" cy="1542415"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20578445" y="3515361"/>
+          <a:ext cx="0" cy="1542415"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>524140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5476875"/>
+          <a:ext cx="1895740" cy="4201409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562245</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="5476875"/>
+          <a:ext cx="1933845" cy="4182360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>543192</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="5953125"/>
+          <a:ext cx="1914792" cy="4191885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543191</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="3095625"/>
+          <a:ext cx="1905266" cy="4172834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676540</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="3095625"/>
+          <a:ext cx="1895740" cy="4172834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>530490</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="5476875"/>
+          <a:ext cx="1902090" cy="4163306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530490</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="5476875"/>
+          <a:ext cx="1902090" cy="4163308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>530490</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="5476875"/>
+          <a:ext cx="1902090" cy="4144259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>559069</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516600" y="5476875"/>
+          <a:ext cx="1930669" cy="4182359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>540016</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20574000" y="5476875"/>
+          <a:ext cx="1911616" cy="4172835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>540016</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22631400" y="5476875"/>
+          <a:ext cx="1911616" cy="4172835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>559069</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24688800" y="5476875"/>
+          <a:ext cx="1930669" cy="4163309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>540016</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26746200" y="5476875"/>
+          <a:ext cx="1911616" cy="4144252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="5715000"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638299" y="5486400"/>
+          <a:ext cx="942975" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="上矢印 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="上矢印 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="上矢印 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="上矢印 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="上矢印 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13030200" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="上矢印 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="上矢印 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17145000" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="上矢印 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19202400" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="上矢印 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21259800" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="上矢印 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23317200" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="6600825"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6600825"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="6010274"/>
+          <a:ext cx="952500" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="4143375"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505824" y="3133725"/>
+          <a:ext cx="942975" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="4143375"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706099" y="3133725"/>
+          <a:ext cx="942975" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12372975" y="7200900"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="7600950"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="7781925"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17392649" y="5953125"/>
+          <a:ext cx="962025" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18554700" y="8020050"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19478625" y="6010275"/>
+          <a:ext cx="933450" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20602575" y="8220075"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="正方形/長方形 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21536025" y="6000750"/>
+          <a:ext cx="933450" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22659975" y="8420100"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23612475" y="5972175"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24717375" y="9448800"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26774775" y="9848850"/>
+          <a:ext cx="914400" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="上矢印 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25374600" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="上矢印 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27432000" y="5238750"/>
+          <a:ext cx="676275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3958,15 +6326,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AF4"/>
+  <dimension ref="AF3:AP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="32:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="32:42" x14ac:dyDescent="0.4">
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="32:42" x14ac:dyDescent="0.4">
       <c r="AF4" t="s">
         <v>0</v>
       </c>
